--- a/data/data-chal/chal3.xlsx
+++ b/data/data-chal/chal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevious/workspace/SVAMP_ko/data/data-chal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBD2D2-7793-3649-AC3D-E1C47B3E10DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0A144-2A10-A941-A31F-4971FA005CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="500" windowWidth="43600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,15 +495,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/ % number3 * number1 number2 number2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100개의 사탕을 태형, 남준 2명에게 순서대로 1개씩 나누어 줍니다. 5번째 사탕을 받는 사람은 누구입니까?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100개의 사탕을 윤기, 태형, 남준, 지민 4명에게 순서대로 3개씩 나누어 줍니다. 5번째 사탕을 받는 사람은 누구입니까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// % number3 * number1 number2 number2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +886,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2321,23 +2321,23 @@
         <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18">
       <c r="A55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
         <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18">
@@ -2348,7 +2348,7 @@
         <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18">
@@ -2359,7 +2359,7 @@
         <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/data-chal/chal3.xlsx
+++ b/data/data-chal/chal3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevious/workspace/SVAMP_ko/data/data-chal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0A144-2A10-A941-A31F-4971FA005CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3000F9-288F-CD4B-8C27-4FC3C2A33F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="500" windowWidth="43600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
   <si>
     <t>Question</t>
   </si>
@@ -504,6 +504,14 @@
   </si>
   <si>
     <t>// % number3 * number1 number2 number2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지민, 정국, 태형이의 수학 점수는 각각 94점, 82점, 88점입니다. 이 3을 제외한 학급의 수학 점수 평균은 78점입니다. 지민이네 학급 인원수가 30명일 때, 학급 수학 평균 점수는 몇 점입니까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 시합에서 남준이는 2등을 했고, 윤기는 4등을 했습니다. 호석이는 윤기보다 잘했지만 남준이보다는 못했습니다. 호석이의 등수는 몇 등입니까?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1011,79 +1019,52 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18">
+    <row r="5" spans="1:11" ht="36">
       <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
+      <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>13000</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36">
-      <c r="A6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="36">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1118,258 +1099,258 @@
     </row>
     <row r="8" spans="1:11" ht="36">
       <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36">
+      <c r="A9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="36">
+      <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I10" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9">
-        <v>5.25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>2016</v>
+        <v>5.25</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13">
-        <v>5.25</v>
+        <v>2016</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>5.25</v>
@@ -1398,13 +1379,13 @@
     </row>
     <row r="16" spans="1:11" ht="18">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>5.25</v>
@@ -1433,13 +1414,13 @@
     </row>
     <row r="17" spans="1:11" ht="18">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>5.25</v>
@@ -1468,13 +1449,13 @@
     </row>
     <row r="18" spans="1:11" ht="18">
       <c r="A18" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>5.25</v>
@@ -1503,13 +1484,13 @@
     </row>
     <row r="19" spans="1:11" ht="18">
       <c r="A19" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>5.25</v>
@@ -1538,13 +1519,13 @@
     </row>
     <row r="20" spans="1:11" ht="18">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>5.25</v>
@@ -1573,13 +1554,13 @@
     </row>
     <row r="21" spans="1:11" ht="18">
       <c r="A21" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>5.25</v>
@@ -1608,13 +1589,13 @@
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D22">
         <v>5.25</v>
@@ -1643,13 +1624,13 @@
     </row>
     <row r="23" spans="1:11" ht="18">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>5.25</v>
@@ -1676,25 +1657,79 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="36">
+    <row r="24" spans="1:11" ht="18">
       <c r="A24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>5.25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18">
       <c r="A25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>5.25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="36">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>108</v>
@@ -1702,115 +1737,61 @@
     </row>
     <row r="27" spans="1:11" ht="18">
       <c r="A27" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="36">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18">
       <c r="A31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" t="s">
-        <v>56</v>
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18">
       <c r="A32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" t="s">
-        <v>56</v>
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18">
       <c r="A33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D33">
         <v>63</v>
@@ -1839,18 +1820,72 @@
     </row>
     <row r="34" spans="1:11" ht="18">
       <c r="A34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18">
       <c r="A35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18">
@@ -1895,72 +1930,18 @@
     </row>
     <row r="41" spans="1:11" ht="18">
       <c r="A41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" t="s">
-        <v>56</v>
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18">
       <c r="A42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42">
-        <v>63</v>
-      </c>
-      <c r="E42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" t="s">
-        <v>56</v>
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18">
@@ -2070,72 +2051,72 @@
     </row>
     <row r="46" spans="1:11" ht="18">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J47" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K47" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18">
@@ -2315,26 +2296,80 @@
     </row>
     <row r="53" spans="1:11" ht="18">
       <c r="A53" s="3" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18">
       <c r="A55" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
       </c>
       <c r="C55" t="s">
         <v>139</v>
@@ -2342,10 +2377,7 @@
     </row>
     <row r="56" spans="1:11" ht="18">
       <c r="A56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
@@ -2353,12 +2385,31 @@
     </row>
     <row r="57" spans="1:11" ht="18">
       <c r="A57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="18">
+      <c r="A58" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>136</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="18">
+      <c r="A59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
         <v>139</v>
       </c>
     </row>

--- a/data/data-chal/chal3.xlsx
+++ b/data/data-chal/chal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevious/workspace/SVAMP_ko/data/data-chal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3000F9-288F-CD4B-8C27-4FC3C2A33F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37EA2C-CB4B-0642-BFD4-061368A12457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="500" windowWidth="43600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="144">
   <si>
     <t>Question</t>
   </si>
@@ -512,6 +512,14 @@
   </si>
   <si>
     <t>달리기 시합에서 남준이는 2등을 했고, 윤기는 4등을 했습니다. 호석이는 윤기보다 잘했지만 남준이보다는 못했습니다. 호석이의 등수는 몇 등입니까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ + number0 number1 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ + + + number0 number1 number2 * number4 - number5 number3 number5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -893,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1024,7 +1032,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
@@ -1140,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D9">
         <v>83</v>

--- a/data/data-chal/chal3.xlsx
+++ b/data/data-chal/chal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevious/workspace/SVAMP_ko/data/data-chal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37EA2C-CB4B-0642-BFD4-061368A12457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642384F-91F1-8943-B2C1-2A05AC494DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="500" windowWidth="43600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,10 +503,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// % number3 * number1 number2 number2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지민, 정국, 태형이의 수학 점수는 각각 94점, 82점, 88점입니다. 이 3을 제외한 학급의 수학 점수 평균은 78점입니다. 지민이네 학급 인원수가 30명일 때, 학급 수학 평균 점수는 몇 점입니까?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -520,6 +516,10 @@
   </si>
   <si>
     <t>/ + + + number0 number1 number2 * number4 - number5 number3 number5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ % number3 * number1 number2 number2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5" spans="1:11" ht="36">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
@@ -1142,13 +1142,13 @@
     </row>
     <row r="9" spans="1:11" ht="36">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9">
         <v>83</v>
@@ -2380,7 +2380,7 @@
         <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18">
@@ -2388,7 +2388,7 @@
         <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18">
@@ -2396,7 +2396,7 @@
         <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="18">
@@ -2407,7 +2407,7 @@
         <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18">
@@ -2418,7 +2418,7 @@
         <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/data-chal/chal3.xlsx
+++ b/data/data-chal/chal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevious/workspace/SVAMP_ko/data/data-chal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642384F-91F1-8943-B2C1-2A05AC494DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C99F0-4D7B-C643-B54D-DEB4159C7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="500" windowWidth="43600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
   <si>
     <t>Question</t>
   </si>
@@ -520,6 +520,26 @@
   </si>
   <si>
     <t>/ % number3 * number1 number2 number2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 소수의 소수점을 오른쪽으로 1 자리 옮기면 원래보다 2.7만큼 커집니다. 원래의 소수를 구하시오.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x*10=x+N1, x = N0/(10.0*N0-1.0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 소수의 소수점을 왼쪽으로 1 자리 옮기면 원래보다 2.7만큼 작아집니다. 원래의 소수를 구하시오.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/10 = x-N1, x=10x-10*N1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ number1 - * number0 10.0 1.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -899,16 +919,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="107.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="69.5" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
@@ -2421,6 +2441,28 @@
         <v>143</v>
       </c>
     </row>
+    <row r="60" spans="1:11" ht="18">
+      <c r="A60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="18">
+      <c r="A61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data-chal/chal3.xlsx
+++ b/data/data-chal/chal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevious/workspace/SVAMP_ko/data/data-chal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C99F0-4D7B-C643-B54D-DEB4159C7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A619AF-EEDF-0E4B-9CDF-2373FBE6B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="500" windowWidth="43600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="155">
   <si>
     <t>Question</t>
   </si>
@@ -540,6 +540,29 @@
   </si>
   <si>
     <t>/ number1 - * number0 10.0 1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정국이는 4와 4를 모았습니다. 지민이는 3과 6을 모았습니다. 누가 모은 수가 더 큽니까?</t>
+  </si>
+  <si>
+    <t>/ + number2 number3 + number0 number1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정국이는 6와 2를 모았습니다. 지민이는 7과 3을 모았습니다. 누가 모은 수가 더 큽니까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정국이는 6와 2를 모았습니다. 지민이는 7과 3을 모았습니다. 누가 모은 수가 더 작습니까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ + number0 number1 + number2 number3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정국이는 4와 4를 모았습니다. 지민이는 3과 6을 모았습니다. 누가 모은 수가 더 작습니까?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -919,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2463,6 +2486,38 @@
         <v>148</v>
       </c>
     </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="18">
+      <c r="A63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="18">
+      <c r="A64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18">
+      <c r="A65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
